--- a/course_data.xlsx
+++ b/course_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="98">
   <si>
     <t>when</t>
   </si>
@@ -227,9 +227,6 @@
     <t>#BackEnd #JS #NodeJS</t>
   </si>
   <si>
-    <t>#history #internet #protocol #howitworks</t>
-  </si>
-  <si>
     <t>#modeling #analysis</t>
   </si>
   <si>
@@ -299,7 +296,28 @@
     <t>The Data Analyst Nanodegree program is specifically designed to prepare you for a career in Data Science. As a Data Analyst, you are responsible for obtaining, analyzing, and effectively reporting on data insights ranging from business metrics to user behavior and product performance. This program’s curriculum was developed with leading industry partners to ensure students master the most cutting-edge curriculum. Graduates will emerge fully prepared for this amazing career.</t>
   </si>
   <si>
-    <t xml:space="preserve">I1) Build a portfolio </t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>#history #cs #fundamentals</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The impact of technology and networks on our lives, culture, and society continues to increase. The very fact that you can take this course from anywhere in the world requires a technological infrastructure that was designed, engineered, and built over the past sixty years. To function in an information-centric world, we need to understand the workings of network technology. This course will open up the Internet and show you how it was created, who created it and how it works. Along the way we will meet many of the innovators who developed the Internet and Web technologies that we use today. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Build a portfolio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) After playing with different online learning platforms (Apple university, Stanford online) without never engaging really, I discoreved Coursera. This was my first MOOC, I wanted to try this new (back in 2012) learning format the looked very engaging. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With this course, I understood the underlaying history that made internet possible. </t>
   </si>
 </sst>
 </file>
@@ -406,14 +424,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,7 +779,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,68 +796,74 @@
         <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,31 +880,31 @@
         <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -939,6 +963,9 @@
       <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -946,6 +973,9 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -955,7 +985,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -964,7 +997,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -973,7 +1009,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -981,8 +1020,11 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>89</v>
+      <c r="C14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="409" x14ac:dyDescent="0.2">
@@ -991,148 +1033,157 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="272" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
@@ -1144,6 +1195,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="G14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
